--- a/FNCE 449 term project data/FANG/FANG Earnings surprise.xlsx
+++ b/FNCE 449 term project data/FANG/FANG Earnings surprise.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hoang.nguyen1\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/namnguyenvu/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8BA4B1CF-6B05-4F13-AA68-94CCE1712B09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEE98092-69E8-CF41-A1CD-9A76AE866DF0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="242">
   <si>
     <t>Ann Date</t>
   </si>
@@ -743,13 +743,19 @@
   </si>
   <si>
     <t>3.72%</t>
+  </si>
+  <si>
+    <t>Price</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -891,6 +897,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="34">
@@ -1241,10 +1260,13 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="33" borderId="0" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="8" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="8" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
@@ -1305,9 +1327,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1345,9 +1367,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1380,9 +1402,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1415,9 +1454,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1591,70 +1647,76 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M50"/>
+  <dimension ref="A1:N50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2:N50"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="3" width="10.42578125" customWidth="1"/>
-    <col min="4" max="4" width="3.85546875" customWidth="1"/>
-    <col min="5" max="13" width="10.42578125" customWidth="1"/>
+    <col min="1" max="3" width="10.5" customWidth="1"/>
+    <col min="4" max="4" width="3.83203125" customWidth="1"/>
+    <col min="5" max="13" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:14">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="N1" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="N2" s="3"/>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -1673,8 +1735,9 @@
       <c r="M3">
         <v>10.99</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N3" s="3"/>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -1693,8 +1756,9 @@
       <c r="M4">
         <v>10.97</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N4" s="3"/>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -1713,8 +1777,9 @@
       <c r="M5">
         <v>10.87</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N5" s="3"/>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -1733,8 +1798,9 @@
       <c r="M6">
         <v>10.77</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N6" s="3"/>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -1765,8 +1831,11 @@
       <c r="M7">
         <v>10.55</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N7" s="4">
+        <v>27.59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" t="s">
         <v>31</v>
       </c>
@@ -1797,8 +1866,11 @@
       <c r="M8">
         <v>10.7</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N8" s="5">
+        <v>31.44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" t="s">
         <v>36</v>
       </c>
@@ -1829,8 +1901,11 @@
       <c r="M9">
         <v>8.5500000000000007</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N9" s="5">
+        <v>30.98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" t="s">
         <v>41</v>
       </c>
@@ -1861,8 +1936,11 @@
       <c r="M10">
         <v>8.26</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N10" s="5">
+        <v>39.299999999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" t="s">
         <v>46</v>
       </c>
@@ -1893,8 +1971,11 @@
       <c r="M11">
         <v>6.6</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N11" s="5">
+        <v>40.49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" t="s">
         <v>51</v>
       </c>
@@ -1925,8 +2006,11 @@
       <c r="M12">
         <v>5.93</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N12" s="5">
+        <v>36.9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" t="s">
         <v>55</v>
       </c>
@@ -1957,8 +2041,11 @@
       <c r="M13">
         <v>5.73</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N13" s="5">
+        <v>38.06</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" t="s">
         <v>60</v>
       </c>
@@ -1989,8 +2076,11 @@
       <c r="M14">
         <v>5.45</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N14" s="5">
+        <v>49.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15" t="s">
         <v>65</v>
       </c>
@@ -2021,8 +2111,11 @@
       <c r="M15">
         <v>6.54</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N15" s="5">
+        <v>36.01</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16" t="s">
         <v>70</v>
       </c>
@@ -2053,8 +2146,11 @@
       <c r="M16">
         <v>9.75</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N16" s="5">
+        <v>40.61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" t="s">
         <v>75</v>
       </c>
@@ -2085,8 +2181,11 @@
       <c r="M17">
         <v>9.68</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N17" s="5">
+        <v>31.04</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" t="s">
         <v>80</v>
       </c>
@@ -2117,8 +2216,11 @@
       <c r="M18">
         <v>10.98</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N18" s="5">
+        <v>27.17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" t="s">
         <v>85</v>
       </c>
@@ -2149,8 +2251,11 @@
       <c r="M19">
         <v>14.83</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N19" s="5">
+        <v>18.28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" t="s">
         <v>90</v>
       </c>
@@ -2181,8 +2286,11 @@
       <c r="M20">
         <v>17.29</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N20" s="5">
+        <v>20.46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" t="s">
         <v>95</v>
       </c>
@@ -2213,8 +2321,11 @@
       <c r="M21">
         <v>14.19</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N21" s="5">
+        <v>19.079999999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" t="s">
         <v>100</v>
       </c>
@@ -2245,8 +2356,11 @@
       <c r="M22">
         <v>7.04</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N22" s="5">
+        <v>8.89</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" t="s">
         <v>105</v>
       </c>
@@ -2277,8 +2391,11 @@
       <c r="M23">
         <v>8.17</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N23" s="5">
+        <v>15.72</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" t="s">
         <v>110</v>
       </c>
@@ -2309,8 +2426,11 @@
       <c r="M24">
         <v>4.01</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N24" s="5">
+        <v>12.06</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" t="s">
         <v>115</v>
       </c>
@@ -2341,8 +2461,11 @@
       <c r="M25">
         <v>14.35</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N25" s="5">
+        <v>28.11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
       <c r="A26" t="s">
         <v>120</v>
       </c>
@@ -2373,8 +2496,11 @@
       <c r="M26">
         <v>15.64</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N26" s="5">
+        <v>23.96</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
       <c r="A27" t="s">
         <v>125</v>
       </c>
@@ -2405,8 +2531,11 @@
       <c r="M27">
         <v>18.28</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N27" s="5">
+        <v>22.92</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
       <c r="A28" t="s">
         <v>130</v>
       </c>
@@ -2437,8 +2566,11 @@
       <c r="M28">
         <v>15.45</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N28" s="5">
+        <v>30.51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
       <c r="A29" t="s">
         <v>135</v>
       </c>
@@ -2469,8 +2601,11 @@
       <c r="M29">
         <v>13.59</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N29" s="5">
+        <v>33.31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
       <c r="A30" t="s">
         <v>140</v>
       </c>
@@ -2501,8 +2636,11 @@
       <c r="M30">
         <v>18.850000000000001</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N30" s="5">
+        <v>37.340000000000003</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
       <c r="A31" t="s">
         <v>145</v>
       </c>
@@ -2533,8 +2671,11 @@
       <c r="M31">
         <v>19.260000000000002</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N31" s="5">
+        <v>46.13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
       <c r="A32" t="s">
         <v>150</v>
       </c>
@@ -2565,8 +2706,11 @@
       <c r="M32">
         <v>21.63</v>
       </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N32" s="5">
+        <v>40.119999999999997</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
       <c r="A33" t="s">
         <v>155</v>
       </c>
@@ -2597,8 +2741,11 @@
       <c r="M33">
         <v>24.05</v>
       </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N33" s="5">
+        <v>37.700000000000003</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
       <c r="A34" t="s">
         <v>160</v>
       </c>
@@ -2629,8 +2776,11 @@
       <c r="M34">
         <v>21.3</v>
       </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N34" s="5">
+        <v>45.74</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
       <c r="A35" t="s">
         <v>165</v>
       </c>
@@ -2661,8 +2811,11 @@
       <c r="M35">
         <v>23.31</v>
       </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N35" s="5">
+        <v>48.66</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
       <c r="A36" t="s">
         <v>170</v>
       </c>
@@ -2693,8 +2846,11 @@
       <c r="M36">
         <v>37.71</v>
       </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N36" s="5">
+        <v>48.47</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
       <c r="A37" t="s">
         <v>175</v>
       </c>
@@ -2725,8 +2881,11 @@
       <c r="M37">
         <v>58.76</v>
       </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N37" s="5">
+        <v>55.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
       <c r="A38" t="s">
         <v>179</v>
       </c>
@@ -2757,8 +2916,11 @@
       <c r="M38">
         <v>101.62</v>
       </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N38" s="5">
+        <v>57.45</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
       <c r="A39" t="s">
         <v>184</v>
       </c>
@@ -2789,8 +2951,11 @@
       <c r="M39">
         <v>112.6</v>
       </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N39" s="5">
+        <v>49.94</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14">
       <c r="A40" t="s">
         <v>189</v>
       </c>
@@ -2821,8 +2986,11 @@
       <c r="M40">
         <v>80.400000000000006</v>
       </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N40" s="5">
+        <v>52.13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14">
       <c r="A41" t="s">
         <v>194</v>
       </c>
@@ -2853,8 +3021,11 @@
       <c r="M41">
         <v>50.68</v>
       </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N41" s="5">
+        <v>37.47</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14">
       <c r="A42" t="s">
         <v>199</v>
       </c>
@@ -2885,8 +3056,11 @@
       <c r="M42">
         <v>38.68</v>
       </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N42" s="5">
+        <v>49.87</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14">
       <c r="A43" t="s">
         <v>204</v>
       </c>
@@ -2917,8 +3091,11 @@
       <c r="M43">
         <v>39.880000000000003</v>
       </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N43" s="5">
+        <v>44.44</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14">
       <c r="A44" t="s">
         <v>209</v>
       </c>
@@ -2949,8 +3126,11 @@
       <c r="M44">
         <v>35.25</v>
       </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N44" s="5">
+        <v>67.34</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14">
       <c r="A45" t="s">
         <v>214</v>
       </c>
@@ -2981,8 +3161,11 @@
       <c r="M45">
         <v>26.57</v>
       </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N45" s="5">
+        <v>66.790000000000006</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14">
       <c r="A46" t="s">
         <v>219</v>
       </c>
@@ -3013,8 +3196,11 @@
       <c r="M46">
         <v>34.46</v>
       </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N46" s="5">
+        <v>74.209999999999994</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14">
       <c r="A47" t="s">
         <v>224</v>
       </c>
@@ -3045,8 +3231,11 @@
       <c r="M47">
         <v>46.74</v>
       </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N47" s="5">
+        <v>99.38</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14">
       <c r="A48" t="s">
         <v>229</v>
       </c>
@@ -3071,8 +3260,11 @@
       <c r="K48" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N48" s="5">
+        <v>87.76</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14">
       <c r="A49" t="s">
         <v>233</v>
       </c>
@@ -3097,8 +3289,11 @@
       <c r="K49" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N49" s="5">
+        <v>84.07</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14">
       <c r="A50" t="s">
         <v>237</v>
       </c>
@@ -3122,6 +3317,9 @@
       </c>
       <c r="K50" t="s">
         <v>240</v>
+      </c>
+      <c r="N50" s="5">
+        <v>90.35</v>
       </c>
     </row>
   </sheetData>
